--- a/output/example.xlsx
+++ b/output/example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -469,34 +469,46 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>samco flexi cap fund</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>samco flexi cap fund</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -505,11 +517,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>canara robeco flexicap fund (crfcf)</t>
+          <t>samco elss tax saver fund</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -518,11 +530,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>canara robeco blue chip equity fund (crbcef)</t>
+          <t>samco active momentum fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -531,11 +543,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>canara robeco emerging equities (cree)</t>
+          <t>samco active momentum fund</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -544,11 +556,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>canara robeco small cap fund (crscf)</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -557,11 +569,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>canara robeco infrastructure (cri)</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -570,7 +582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>canara robeco consumer trends fund (crctf)</t>
+          <t>samco overnight fund</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -581,11 +593,7 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>canara robeco equity tax saver fund (cretsf)</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>12</v>
       </c>
@@ -594,331 +602,45 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>canara robeco focused equity fund (crfef)</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>canara robeco value fund (crvf)</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>canara robeco overnight fund (crof)</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>canara robeco liquid fund (crl)</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>canara robeco ultra short term fund (crustf)</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>canara robeco savings fund (crsf)</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>canara robeco short duration fund (crsdf)</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>canara robeco income fund (crinc)</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>canara robeco dynamic bond fund (crdbf)</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>canara robeco corporate bond fund (crcbf)</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>canara robeco gilt fund (crgilt)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>canara robeco conservative hybrid fund (crchf)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>canara robeco equity hybrid fund (crehf)</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/example.xlsx
+++ b/output/example.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
